--- a/newwrite.xlsx
+++ b/newwrite.xlsx
@@ -14,304 +14,304 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>b7a2e5c7-4b4d-461a-928d-866556dd7636</t>
-  </si>
-  <si>
-    <t>fcaec46b-1a35-40af-a73c-123c1df60073</t>
-  </si>
-  <si>
-    <t>56ff0901-f179-4849-b3d7-229bc6c8f212</t>
-  </si>
-  <si>
-    <t>7fc82d74-fbce-46e7-99e9-7ac790dbbff5</t>
-  </si>
-  <si>
-    <t>13172027-833e-464b-814c-6bac4bfbded9</t>
-  </si>
-  <si>
-    <t>df253b8c-8f65-4992-bf47-71063f519522</t>
-  </si>
-  <si>
-    <t>a4652e3c-d09f-4b11-a58d-47c4e6c5640b</t>
-  </si>
-  <si>
-    <t>e85d79d2-4c1d-4559-b623-8a0772b97f26</t>
-  </si>
-  <si>
-    <t>bce374db-ba79-48f3-957a-5c74aa2bfd37</t>
-  </si>
-  <si>
-    <t>dc622f57-21f8-44ed-9277-b34226819761</t>
-  </si>
-  <si>
-    <t>847a86b4-49b2-445d-9daa-e13f94ecd9fc</t>
-  </si>
-  <si>
-    <t>1b8d2303-6147-47f4-aba3-33d1b793a038</t>
-  </si>
-  <si>
-    <t>1fba4d41-2a41-463a-a022-6e5b0d9dc4c0</t>
-  </si>
-  <si>
-    <t>d523d6f0-a337-4f9c-98c2-ebc50a8fe777</t>
-  </si>
-  <si>
-    <t>c493ec5b-c3f2-4e17-b06c-ead240c3678a</t>
-  </si>
-  <si>
-    <t>59fd70da-bb16-4c10-9645-dd1b5da2bdb8</t>
-  </si>
-  <si>
-    <t>cdd823a9-b9cd-4042-8d31-b0d401dd39be</t>
-  </si>
-  <si>
-    <t>72cbd1db-944b-4bbc-89e0-0332c9989443</t>
-  </si>
-  <si>
-    <t>c7786bc4-3f91-4d9c-b6b5-d6d0db231b3b</t>
-  </si>
-  <si>
-    <t>67767b0b-ff15-4e3b-94c4-ae670038a568</t>
-  </si>
-  <si>
-    <t>0c054686-2cfd-4925-9132-3601a25dfef0</t>
-  </si>
-  <si>
-    <t>9ba63807-52ac-4388-86e0-324338b9f1dc</t>
-  </si>
-  <si>
-    <t>1d9152c1-7b9c-4548-990c-741b27e836d4</t>
-  </si>
-  <si>
-    <t>a045dd64-3c34-47e4-833b-2062bfc5d3f2</t>
-  </si>
-  <si>
-    <t>2d7f1038-82e9-425f-a97d-1377873ac24c</t>
-  </si>
-  <si>
-    <t>0cd5be5b-ebd3-4ff5-9c83-fa99a10de62b</t>
-  </si>
-  <si>
-    <t>f5451354-bc0a-48a4-9396-abb9b775621f</t>
-  </si>
-  <si>
-    <t>aa03f0ff-6bd3-42b1-b255-0b88627eb4e6</t>
-  </si>
-  <si>
-    <t>93eb27de-9d81-4f79-9472-abc3716ed984</t>
-  </si>
-  <si>
-    <t>f1231b59-5dd6-4a90-99e7-231f44c49c45</t>
-  </si>
-  <si>
-    <t>63b01826-cbce-4d7c-bd8a-339f453b986a</t>
-  </si>
-  <si>
-    <t>f5a49bee-70c0-42af-afc1-b5bf6d9fd965</t>
-  </si>
-  <si>
-    <t>11944ffd-25a1-4a7d-9ee2-1f58eafac427</t>
-  </si>
-  <si>
-    <t>98d4acfe-e18c-482d-ad5b-4515a02b70e1</t>
-  </si>
-  <si>
-    <t>71490f21-347e-49bd-bbe7-0d99cad5b17b</t>
-  </si>
-  <si>
-    <t>27691b6f-fb12-417c-aae7-35eee5e2579e</t>
-  </si>
-  <si>
-    <t>7792bf4a-dc16-48b4-8758-36037cea12d2</t>
-  </si>
-  <si>
-    <t>d3f15a43-5906-4b44-aac8-8d1a1cd90b78</t>
-  </si>
-  <si>
-    <t>41f12ed8-b1a1-4282-8a2f-998e0463de07</t>
-  </si>
-  <si>
-    <t>106f1924-edb2-4257-bd14-970847ce399e</t>
-  </si>
-  <si>
-    <t>df4f2332-0163-4e20-82bb-327dbbaca0c2</t>
-  </si>
-  <si>
-    <t>e222a0a4-f5d0-4c03-85e3-470aaed194e7</t>
-  </si>
-  <si>
-    <t>a49099f7-2e51-4dfc-bc21-b278692b4931</t>
-  </si>
-  <si>
-    <t>56f04686-85e8-48ed-a09c-3af1ee82f767</t>
-  </si>
-  <si>
-    <t>43d68dee-391e-4b85-b7c6-fed0cfc6237c</t>
-  </si>
-  <si>
-    <t>1979dd69-fb1f-4dae-ab7e-bc8e1b880b69</t>
-  </si>
-  <si>
-    <t>9c2f38cf-4a41-4d95-88fa-8e03efa07e6e</t>
-  </si>
-  <si>
-    <t>1713bd60-86c5-4a9c-ba4d-fc947d57c0f9</t>
-  </si>
-  <si>
-    <t>4fd65607-c9b8-4f05-87d9-6c9998f0c2f1</t>
-  </si>
-  <si>
-    <t>51838903-8082-4102-8130-dabffd08e8c4</t>
-  </si>
-  <si>
-    <t>72eb8c3a-2935-48c0-a223-bc17e92a1901</t>
-  </si>
-  <si>
-    <t>f996a35e-1cb9-4045-b210-e24f2a38f034</t>
-  </si>
-  <si>
-    <t>809f0a68-e48d-4e51-825f-f17721809c39</t>
-  </si>
-  <si>
-    <t>e36b7f7a-ba69-462e-9a37-42c281769e07</t>
-  </si>
-  <si>
-    <t>d36891eb-9232-43a2-8f14-8d6d59ad3ddd</t>
-  </si>
-  <si>
-    <t>595d4dad-42bf-4e85-9a46-07dba1f4bb50</t>
-  </si>
-  <si>
-    <t>46d17b7f-c564-4288-8c3e-ce70d65b10c5</t>
-  </si>
-  <si>
-    <t>ae231ef4-5930-4d15-8e4c-51bcf18c8f3f</t>
-  </si>
-  <si>
-    <t>17f2806d-61c4-4c48-87a2-ed3e662fe8aa</t>
-  </si>
-  <si>
-    <t>c524ddc7-15d2-4eee-8066-a3162febea17</t>
-  </si>
-  <si>
-    <t>eb29f72f-e7c9-430a-9f90-41f8d7c85d6d</t>
-  </si>
-  <si>
-    <t>bedea598-4c78-4d95-994e-770e18770018</t>
-  </si>
-  <si>
-    <t>40b0d3e0-66aa-4ccb-a4a0-051086ae3005</t>
-  </si>
-  <si>
-    <t>4bb91a74-11ac-4bb4-aeea-3ba683a68a55</t>
-  </si>
-  <si>
-    <t>750f832d-f9f7-4c2d-9be5-93eeacb966e7</t>
-  </si>
-  <si>
-    <t>bd8806a1-a047-4c17-a020-28a17177489e</t>
-  </si>
-  <si>
-    <t>8a5e289e-eca2-45db-afe5-9c61fdee3241</t>
-  </si>
-  <si>
-    <t>607ba54c-6757-469a-8903-e0d042a6e3f7</t>
-  </si>
-  <si>
-    <t>29cf4f64-1e3f-4f9f-b3c8-90734fc97f13</t>
-  </si>
-  <si>
-    <t>0ac61557-46c9-4e1c-82e8-8d2e4cbc93b0</t>
-  </si>
-  <si>
-    <t>03e85d63-bf54-48b2-a07a-623e96beb26b</t>
-  </si>
-  <si>
-    <t>1c2abc2f-390b-40eb-8430-11cd36af782d</t>
-  </si>
-  <si>
-    <t>0594744a-1fc9-42f9-86ae-27570790f67a</t>
-  </si>
-  <si>
-    <t>bdb925f6-b611-4721-b1a9-053a7f735713</t>
-  </si>
-  <si>
-    <t>8f0afa14-67b3-439e-ac9c-6f79a0028f2e</t>
-  </si>
-  <si>
-    <t>e0a8f878-1396-46ba-9a3f-4ba2906165ff</t>
-  </si>
-  <si>
-    <t>342f0488-0881-4082-b1c4-e435bfc0a00f</t>
-  </si>
-  <si>
-    <t>94160434-1f1c-4bb6-a979-01165291e414</t>
-  </si>
-  <si>
-    <t>9eb9508f-97c9-4ad6-aeb5-e91ae886d0bf</t>
-  </si>
-  <si>
-    <t>bdbad7b3-7604-4260-953e-dae048c4d2ce</t>
-  </si>
-  <si>
-    <t>0fbdf9f3-027e-46d5-bf72-9d3dda3a0960</t>
-  </si>
-  <si>
-    <t>094546c5-fb20-4045-899d-56bf94be636b</t>
-  </si>
-  <si>
-    <t>b29676bd-3045-47d7-b453-c5af4a60daa3</t>
-  </si>
-  <si>
-    <t>7868bbea-18f6-438a-8774-bf91b1253706</t>
-  </si>
-  <si>
-    <t>2af98845-c5ee-47a0-b262-338645574a00</t>
-  </si>
-  <si>
-    <t>98ab5eff-e9cb-46ab-bde1-4a759678011c</t>
-  </si>
-  <si>
-    <t>0e57e3d7-399e-43fc-bdbe-7cb734364176</t>
-  </si>
-  <si>
-    <t>01f5603f-b3bf-4778-879a-90b91cc5aa07</t>
-  </si>
-  <si>
-    <t>7fcaec21-9347-4b4d-b52b-a2ebfade8e8a</t>
-  </si>
-  <si>
-    <t>b96988a7-7eb6-45e4-bb63-77157c2c76df</t>
-  </si>
-  <si>
-    <t>52f038eb-8326-482c-a254-e8f3ccd6ea42</t>
-  </si>
-  <si>
-    <t>3a2ab1d2-9ae2-4855-8ac7-e7bb4b30493f</t>
-  </si>
-  <si>
-    <t>e2867a4d-eb44-469f-a61e-22e1e90422d0</t>
-  </si>
-  <si>
-    <t>865d2980-82e2-4221-99aa-c366138edc8b</t>
-  </si>
-  <si>
-    <t>4c43393f-b638-4b05-a44a-aaf62de0f7bc</t>
-  </si>
-  <si>
-    <t>859b0734-a341-4b23-842e-3aeee47a4b7b</t>
-  </si>
-  <si>
-    <t>f5205c16-54a7-49ed-a64e-cd8d2197dea5</t>
-  </si>
-  <si>
-    <t>2b54244f-529c-4e61-8fd1-48e21f811851</t>
-  </si>
-  <si>
-    <t>12e8cc3e-9212-44f5-8a59-1f4de6dd7996</t>
-  </si>
-  <si>
-    <t>7ab4fcf2-f4d0-4143-affa-9fb49f04bb26</t>
+    <t>7969</t>
+  </si>
+  <si>
+    <t>b66c</t>
+  </si>
+  <si>
+    <t>5365</t>
+  </si>
+  <si>
+    <t>263c</t>
+  </si>
+  <si>
+    <t>29d5</t>
+  </si>
+  <si>
+    <t>38ac</t>
+  </si>
+  <si>
+    <t>818b</t>
+  </si>
+  <si>
+    <t>509c</t>
+  </si>
+  <si>
+    <t>95c5</t>
+  </si>
+  <si>
+    <t>6287</t>
+  </si>
+  <si>
+    <t>8b80</t>
+  </si>
+  <si>
+    <t>3346</t>
+  </si>
+  <si>
+    <t>ec88</t>
+  </si>
+  <si>
+    <t>6da7</t>
+  </si>
+  <si>
+    <t>6ab9</t>
+  </si>
+  <si>
+    <t>9e55</t>
+  </si>
+  <si>
+    <t>87d9</t>
+  </si>
+  <si>
+    <t>ae4b</t>
+  </si>
+  <si>
+    <t>4810</t>
+  </si>
+  <si>
+    <t>47ba</t>
+  </si>
+  <si>
+    <t>5a34</t>
+  </si>
+  <si>
+    <t>7205</t>
+  </si>
+  <si>
+    <t>0402</t>
+  </si>
+  <si>
+    <t>98c9</t>
+  </si>
+  <si>
+    <t>7f29</t>
+  </si>
+  <si>
+    <t>b983</t>
+  </si>
+  <si>
+    <t>81bf</t>
+  </si>
+  <si>
+    <t>c7b6</t>
+  </si>
+  <si>
+    <t>ee01</t>
+  </si>
+  <si>
+    <t>469e</t>
+  </si>
+  <si>
+    <t>868c</t>
+  </si>
+  <si>
+    <t>e5c2</t>
+  </si>
+  <si>
+    <t>8418</t>
+  </si>
+  <si>
+    <t>5233</t>
+  </si>
+  <si>
+    <t>f7b4</t>
+  </si>
+  <si>
+    <t>e162</t>
+  </si>
+  <si>
+    <t>521a</t>
+  </si>
+  <si>
+    <t>c253</t>
+  </si>
+  <si>
+    <t>312c</t>
+  </si>
+  <si>
+    <t>6c18</t>
+  </si>
+  <si>
+    <t>0a03</t>
+  </si>
+  <si>
+    <t>2b66</t>
+  </si>
+  <si>
+    <t>447c</t>
+  </si>
+  <si>
+    <t>9aa4</t>
+  </si>
+  <si>
+    <t>2d9b</t>
+  </si>
+  <si>
+    <t>a8c8</t>
+  </si>
+  <si>
+    <t>48f4</t>
+  </si>
+  <si>
+    <t>d333</t>
+  </si>
+  <si>
+    <t>fdc8</t>
+  </si>
+  <si>
+    <t>1e69</t>
+  </si>
+  <si>
+    <t>fec5</t>
+  </si>
+  <si>
+    <t>e12c</t>
+  </si>
+  <si>
+    <t>4af0</t>
+  </si>
+  <si>
+    <t>a8c3</t>
+  </si>
+  <si>
+    <t>0437</t>
+  </si>
+  <si>
+    <t>e92d</t>
+  </si>
+  <si>
+    <t>335c</t>
+  </si>
+  <si>
+    <t>8a9a</t>
+  </si>
+  <si>
+    <t>58ee</t>
+  </si>
+  <si>
+    <t>009f</t>
+  </si>
+  <si>
+    <t>7789</t>
+  </si>
+  <si>
+    <t>1b7b</t>
+  </si>
+  <si>
+    <t>e8db</t>
+  </si>
+  <si>
+    <t>d428</t>
+  </si>
+  <si>
+    <t>110f</t>
+  </si>
+  <si>
+    <t>c963</t>
+  </si>
+  <si>
+    <t>5c29</t>
+  </si>
+  <si>
+    <t>9b15</t>
+  </si>
+  <si>
+    <t>5e51</t>
+  </si>
+  <si>
+    <t>bd02</t>
+  </si>
+  <si>
+    <t>8b61</t>
+  </si>
+  <si>
+    <t>5b9e</t>
+  </si>
+  <si>
+    <t>1f77</t>
+  </si>
+  <si>
+    <t>29d6</t>
+  </si>
+  <si>
+    <t>cdb4</t>
+  </si>
+  <si>
+    <t>588f</t>
+  </si>
+  <si>
+    <t>8224</t>
+  </si>
+  <si>
+    <t>0535</t>
+  </si>
+  <si>
+    <t>c348</t>
+  </si>
+  <si>
+    <t>b92b</t>
+  </si>
+  <si>
+    <t>4f5d</t>
+  </si>
+  <si>
+    <t>0c45</t>
+  </si>
+  <si>
+    <t>6e3a</t>
+  </si>
+  <si>
+    <t>66f7</t>
+  </si>
+  <si>
+    <t>221d</t>
+  </si>
+  <si>
+    <t>2038</t>
+  </si>
+  <si>
+    <t>8a03</t>
+  </si>
+  <si>
+    <t>3f23</t>
+  </si>
+  <si>
+    <t>73a8</t>
+  </si>
+  <si>
+    <t>2701</t>
+  </si>
+  <si>
+    <t>4d45</t>
+  </si>
+  <si>
+    <t>75c9</t>
+  </si>
+  <si>
+    <t>0432</t>
+  </si>
+  <si>
+    <t>874f</t>
+  </si>
+  <si>
+    <t>76cb</t>
+  </si>
+  <si>
+    <t>7420</t>
+  </si>
+  <si>
+    <t>9b35</t>
+  </si>
+  <si>
+    <t>bfbf</t>
+  </si>
+  <si>
+    <t>c6f2</t>
+  </si>
+  <si>
+    <t>2295</t>
   </si>
 </sst>
 </file>
